--- a/Who_Is_Smarter/tidy_data/SP2019_survey_congin.table.xlsx
+++ b/Who_Is_Smarter/tidy_data/SP2019_survey_congin.table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterwilliams/Desktop/bacn_lab/Who_Is_Smarter/tidy_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9355F7F-9E45-5043-BD4D-F6362D2E63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9C13E-91FA-2B4A-80B7-274BF7F33792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="900" windowWidth="25600" windowHeight="14460" xr2:uid="{B0A1A9C3-F0BE-A946-995E-C55FBB45F6DB}"/>
   </bookViews>
